--- a/data/trans_camb/P32A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 5,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 3,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 12,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 3,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 5,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>381,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>490,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>285,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>322,18%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,78; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 1,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 3,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 1,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>189,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; 877,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,7; 1043,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 685,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 680,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 425,52</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 4,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 0,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 1,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 2,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 1,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 1,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,56%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,87; 803,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,67; 593,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 429,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 446,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,63; 286,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,76; 279,85</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 3,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 3,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 2,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 2,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 2,57</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>241,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>221,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>260,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>254,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,18%</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,67; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,08; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,26; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,21; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,05; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 0,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 1,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 3,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 10,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 8,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 5,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 2,24</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,24</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,33%</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,56; 169,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,65; 438,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,47; 337,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,5; 330,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,52; 365,02</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 5,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 2,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 3,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 4,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 2,51</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 2,74</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>340,76%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>117,21%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>372,38%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>303,83%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,5%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>327,32%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 2,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 1,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 1,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 1,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 1,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 1,51</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,53</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,65%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>308,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>373,68%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,3%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,43%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,81; 318,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 232,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 206,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 1299,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1448,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,13; 1880,14</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,03; 280,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,33; 239,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,58; 253,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,14</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 12,85</t>
+          <t>0,35; 12,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 5,86</t>
+          <t>-0,24; 4,85</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>322,18%</t>
+          <t>275,97%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,42</t>
+          <t>-1,39; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,38</t>
+          <t>-0,48; 3,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,4</t>
+          <t>-0,9; 1,72</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-44,56%</t>
+          <t>-31,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>172,04%</t>
+          <t>164,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 425,52</t>
+          <t>-100,0; 462,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,41</t>
+          <t>-1,76; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,63</t>
+          <t>-1,33; 2,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,26</t>
+          <t>-1,2; 1,13</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,54%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-7,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 429,02</t>
+          <t>-100,0; 411,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,76; 279,85</t>
+          <t>-78,37; 257,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,66</t>
+          <t>-0,05; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,48</t>
+          <t>0,09; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,57</t>
+          <t>0,09; 2,54</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>239,99%</t>
+          <t>231,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>280,18%</t>
+          <t>274,81%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,26; —</t>
+          <t>-51,56; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,21; —</t>
+          <t>-28,59; —</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,11</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,9</t>
+          <t>-3,03; 3,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,01</t>
+          <t>0,83; 4,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,24</t>
+          <t>-1,71; 3,29</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>52,77%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 438,12</t>
+          <t>-58,06; 443,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 365,02</t>
+          <t>-53,71; 369,82</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1732,27 +1732,27 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,72</t>
+          <t>0,61; 5,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,2</t>
+          <t>0,5; 4,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,57</t>
+          <t>1,02; 4,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,91</t>
+          <t>0,0; 8,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,45</t>
+          <t>0,45; 3,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,51</t>
+          <t>0,4; 3,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 2,74</t>
+          <t>0,23; 2,75</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>340,76%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>117,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>372,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>303,83%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>242,5%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>327,32%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>-2,76; 10,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,71</t>
+          <t>-6,67; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,55</t>
+          <t>-3,61; 3,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,93</t>
+          <t>0,0; 15,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,43</t>
+          <t>0,0; 8,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>-2,22; 8,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,51</t>
+          <t>-3,77; 1,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,53</t>
+          <t>-3,13; 3,48</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>137,65%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>87,19%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>160,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>308,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>373,68%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>137,07%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>112,3%</t>
+          <t>-19,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>106,43%</t>
+          <t>107,0%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 2,47</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 1,71</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 1,52</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 1,33</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 1,93</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,07</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 1,77</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 1,51</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>137,65%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>87,19%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>66,54%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>160,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>308,22%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>317,94%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>137,07%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>112,3%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>95,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>37,81; 318,16</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>6,24; 232,6</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-3,54; 206,88</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 203,65</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-45,93; 1299,42</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,08; 1448,3</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>33,13; 1880,14</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 1531,58</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>42,03; 280,97</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>29,33; 239,18</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>23,58; 253,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 229,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P32A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,28</t>
+          <t>0,69; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,46</t>
+          <t>-0,69; 3,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,0</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,85</t>
+          <t>0,54; 4,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,16</t>
+          <t>0,46; 13,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,71</t>
+          <t>0,76; 3,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,77</t>
+          <t>0,06; 2,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,85</t>
+          <t>-0,17; 4,82</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,04; —</t>
+          <t>3,3; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,78; —</t>
+          <t>12,59; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,72</t>
+          <t>0,36; 3,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,03</t>
+          <t>0,28; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,55</t>
+          <t>-1,37; 1,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,85</t>
+          <t>-1,5; 0,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,75</t>
+          <t>-1,0; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,27</t>
+          <t>-0,61; 3,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,58</t>
+          <t>0,11; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,72</t>
+          <t>0,04; 2,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,72</t>
+          <t>-1,0; 1,59</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 877,43</t>
+          <t>-7,35; 916,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 1043,45</t>
+          <t>-13,78; 1010,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 685,77</t>
+          <t>-13,19; 669,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 680,43</t>
+          <t>-9,59; 717,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 462,15</t>
+          <t>-100,0; 386,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,09</t>
+          <t>-0,01; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,76</t>
+          <t>-0,82; 2,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,32</t>
+          <t>-1,75; 1,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,4</t>
+          <t>-2,56; 0,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,17</t>
+          <t>-2,17; 1,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,5</t>
+          <t>-1,32; 2,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,51</t>
+          <t>-0,32; 2,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,72</t>
+          <t>-0,64; 1,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,13</t>
+          <t>-1,2; 1,19</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 803,92</t>
+          <t>-30,56; 780,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,67; 593,21</t>
+          <t>-54,03; 569,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 411,24</t>
+          <t>-97,34; 469,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 446,45</t>
+          <t>-28,74; 454,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,63; 286,14</t>
+          <t>-45,04; 352,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,37; 257,4</t>
+          <t>-76,84; 225,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,88</t>
+          <t>0,01; 3,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,39</t>
+          <t>-0,18; 3,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 3,58</t>
+          <t>-0,1; 3,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,44</t>
+          <t>0,09; 2,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,82</t>
+          <t>0,03; 2,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,5</t>
+          <t>0,05; 2,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,54</t>
+          <t>0,01; 2,66</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,67; —</t>
+          <t>-69,56; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-56,08; —</t>
+          <t>-66,78; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,56; —</t>
+          <t>-64,77; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-55,21; —</t>
+          <t>-55,34; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,05; —</t>
+          <t>-46,71; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,59; —</t>
+          <t>-59,35; —</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 0,9</t>
+          <t>-5,76; 0,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,71</t>
+          <t>-4,5; 1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,94</t>
+          <t>-3,26; 3,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 10,0</t>
+          <t>0,9; 10,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,48</t>
+          <t>0,86; 8,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,98</t>
+          <t>0,83; 4,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,24</t>
+          <t>-2,77; 2,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,56</t>
+          <t>-2,33; 2,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,29</t>
+          <t>-1,61; 3,12</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,56; 169,61</t>
+          <t>-86,83; 228,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 443,13</t>
+          <t>-65,72; 359,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-89,47; 337,4</t>
+          <t>-90,09; 341,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,5; 330,51</t>
+          <t>-73,86; 326,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 369,82</t>
+          <t>-45,35; 331,53</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,07</t>
+          <t>0,61; 5,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,6</t>
+          <t>0,51; 4,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,64</t>
+          <t>1,02; 4,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>0,0; 7,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,77</t>
+          <t>0,44; 3,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,95</t>
+          <t>0,42; 4,06</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,75</t>
+          <t>0,21; 2,81</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 10,62</t>
+          <t>-2,8; 9,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 0,0</t>
+          <t>-6,99; 0,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,95</t>
+          <t>-3,89; 3,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,27 +2001,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,74</t>
+          <t>0,0; 15,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,18</t>
+          <t>-2,22; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,83</t>
+          <t>-4,43; 1,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,48</t>
+          <t>-2,45; 3,57</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,47</t>
+          <t>0,61; 2,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,71</t>
+          <t>0,08; 1,79</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,52</t>
+          <t>-0,06; 1,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,33</t>
+          <t>-0,12; 1,32</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,93</t>
+          <t>0,24; 1,91</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,07</t>
+          <t>0,12; 2,15</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,77</t>
+          <t>0,53; 1,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,51</t>
+          <t>0,39; 1,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,41</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>37,81; 318,16</t>
+          <t>35,22; 313,78</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>6,24; 232,6</t>
+          <t>2,89; 243,6</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 203,65</t>
+          <t>-6,21; 209,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 1299,42</t>
+          <t>-55,61; 1060,29</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1448,3</t>
+          <t>-3,05; 1561,1</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>8,63; 1531,58</t>
+          <t>-2,75; 1608,61</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>42,03; 280,97</t>
+          <t>45,1; 301,28</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>29,33; 239,18</t>
+          <t>34,53; 244,29</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>13,39; 229,56</t>
+          <t>13,35; 244,66</t>
         </is>
       </c>
     </row>
